--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_type_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_type_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:d0480618-c33d-4372-b15e-ae1afb6c733e"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:d5857426-5438-4d71-b4f3-dadb5e32ac13"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -538,10 +538,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:844a211c-0605-422d-bfd1-305481269aca"&gt;
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:0a336b10-4bf1-4fd0-a1a1-3f5f979772c7"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
- - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:222b944d-cade-4e67-961d-b2a391878e95" nc-ext:flow-id="77"&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:e69b1633-aef2-4e95-bc32-77ddb2a65aa0" nc-ext:flow-id="241"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -549,7 +549,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:6ba9f343-5f06-4091-a9eb-83f99db066a5"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:8f0c1865-e848-428b-b043-80d562439215"&gt;
   &lt;data&gt;
     &lt;network-instances&gt;
       &lt;network-instance&gt;
